--- a/doc/ue_APlayerStart.xlsx
+++ b/doc/ue_APlayerStart.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675FC55E-DB6B-448F-953C-77735AEEEC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,49 +96,50 @@
     <t>APlayerController* AGameModeBase::Login(UPlayer* NewPlayer, ENetRole InRemoteRole, const FString&amp; Portal, const FString&amp; Options, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; ErrorMessage)</t>
   </si>
   <si>
+    <t>return LoadMap( WorldContext, URL, NULL, Error ) ? EBrowseReturnVal::Success : EBrowseReturnVal::Failure;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* const NewPlayerController = GameMode-&gt;Login(NewPlayer, RemoteRole, *InURL.Portal, Options, UniqueId, Error);</t>
+  </si>
+  <si>
+    <t>ErrorMessage = InitNewPlayer(NewPlayerController, UniqueId, Options, Portal);</t>
+  </si>
+  <si>
+    <t>AActor* const StartSpot = FindPlayerStart(NewPlayerController, Portal);</t>
+  </si>
+  <si>
+    <t>蓝图调用，如果蓝图没实现，最终执行到自己实现的函数里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AActor* AGameModeBase::ChoosePlayerStart_Implementation(AController* Player)</t>
+  </si>
+  <si>
+    <t>遍历所有的APlayerStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：如果是APlayerStartPIE则返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：否则将所有的APlayerStart点存起来，从中随机返回一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置设置到NewPlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FString AGameModeBase::InitNewPlayer(APlayerController* NewPlayerController, const FUniqueNetIdRepl&amp; UniqueId, const FString&amp; Options, const FString&amp; Portal)</t>
-  </si>
-  <si>
-    <t>return LoadMap( WorldContext, URL, NULL, Error ) ? EBrowseReturnVal::Success : EBrowseReturnVal::Failure;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APlayerController* const NewPlayerController = GameMode-&gt;Login(NewPlayer, RemoteRole, *InURL.Portal, Options, UniqueId, Error);</t>
-  </si>
-  <si>
-    <t>ErrorMessage = InitNewPlayer(NewPlayerController, UniqueId, Options, Portal);</t>
-  </si>
-  <si>
-    <t>AActor* const StartSpot = FindPlayerStart(NewPlayerController, Portal);</t>
-  </si>
-  <si>
-    <t>蓝图调用，如果蓝图没实现，最终执行到自己实现的函数里面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AActor* AGameModeBase::ChoosePlayerStart_Implementation(AController* Player)</t>
-  </si>
-  <si>
-    <t>遍历所有的APlayerStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：如果是APlayerStartPIE则返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：否则将所有的APlayerStart点存起来，从中随机返回一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置设置到NewPlayerController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,11 +483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="57" x14ac:dyDescent="0.2">
@@ -626,44 +626,44 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
         <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">

--- a/doc/ue_APlayerStart.xlsx
+++ b/doc/ue_APlayerStart.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E50F67-8A5D-4A8C-BCE4-3B9A3E766F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,33 +115,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>遍历所有的APlayerStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：如果是APlayerStartPIE则返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：否则将所有的APlayerStart点存起来，从中随机返回一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置设置到NewPlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString AGameModeBase::InitNewPlayer(APlayerController* NewPlayerController, const FUniqueNetIdRepl&amp; UniqueId, const FString&amp; Options, const FString&amp; Portal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AActor* AGameModeBase::ChoosePlayerStart_Implementation(AController* Player)</t>
-  </si>
-  <si>
-    <t>遍历所有的APlayerStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：如果是APlayerStartPIE则返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：否则将所有的APlayerStart点存起来，从中随机返回一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置设置到NewPlayerController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FString AGameModeBase::InitNewPlayer(APlayerController* NewPlayerController, const FUniqueNetIdRepl&amp; UniqueId, const FString&amp; Options, const FString&amp; Portal)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,7 +634,7 @@
     </row>
     <row r="34" spans="3:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>24</v>
@@ -643,27 +646,27 @@
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
